--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\Template Report Pabi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>NSTDA</t>
-  </si>
-  <si>
-    <t>Procurement Result</t>
-  </si>
-  <si>
-    <t>ประกาศ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -50,47 +41,33 @@
     <t>รายการ</t>
   </si>
   <si>
-    <t>จัดหาโดย</t>
-  </si>
-  <si>
-    <t>สอบราคา/</t>
-  </si>
-  <si>
-    <t>ลงนามใน</t>
-  </si>
-  <si>
-    <t>การส่งมอบ</t>
-  </si>
-  <si>
-    <t>เงิน</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>ใช้วิธี</t>
-  </si>
-  <si>
-    <t>ประกวดราคา</t>
-  </si>
-  <si>
-    <t>สัญญา</t>
-  </si>
-  <si>
-    <t>(วัน/เดือน/ปี)</t>
-  </si>
-  <si>
-    <t>งบประมาณ</t>
-  </si>
-  <si>
-    <t>(บาท)</t>
+    <t>แบบรายงานผลการปฏิบัติการจัดซื้อจัดจ้าง</t>
+  </si>
+  <si>
+    <t>ศูนย์</t>
+  </si>
+  <si>
+    <t>วิธีการจัดซื้อหรือจ้าง</t>
+  </si>
+  <si>
+    <t>วันที่ส่งมอบ</t>
+  </si>
+  <si>
+    <t>เงินงบประมาณ (บาท)</t>
+  </si>
+  <si>
+    <t>วันที่ลงนามในสัญญา</t>
+  </si>
+  <si>
+    <t>วันที่ประกาศสอบราคา
+/ประกวดราคา</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,6 +77,13 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,38 +104,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -159,18 +121,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,6 +153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,112 +424,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="7" width="21.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\Template Report Pabi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="3420" windowWidth="22480" windowHeight="10000" tabRatio="500"/>
+    <workbookView xWindow="3940" yWindow="7660" windowWidth="22480" windowHeight="10000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>ศูนย์</t>
-  </si>
-  <si>
-    <t>วิธีการจัดซื้อหรือจ้าง</t>
   </si>
   <si>
     <t>วันที่ส่งมอบ</t>
@@ -61,12 +58,36 @@
   <si>
     <t>วันที่ประกาศสอบราคา
 /ประกวดราคา</t>
+  </si>
+  <si>
+    <t>วัตถุประสงค์</t>
+  </si>
+  <si>
+    <t>จัดหาโดยวิธี</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>หน่วยนับ</t>
+  </si>
+  <si>
+    <t>เลขที่ PO</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Asset Value</t>
+  </si>
+  <si>
+    <t>PO Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -104,16 +125,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -140,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -424,65 +448,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="7" width="21.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="12" width="20" style="2" customWidth="1"/>
+    <col min="13" max="15" width="21.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_procurement_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="7660" windowWidth="22480" windowHeight="10000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <t>เลขที่ PO</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Asset Value</t>
-  </si>
-  <si>
-    <t>PO Total</t>
+    <t>ยอดรวมการจัดซื้อ</t>
+  </si>
+  <si>
+    <t>มูลค่าครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>ครุภัณฑ์</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -509,13 +509,13 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>10</v>
